--- a/کاربرگ حضور omid lak mazaheriو غیاب.xlsx
+++ b/کاربرگ حضور omid lak mazaheriو غیاب.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lak\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omid\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="اضافه کار" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'اضافه کار'!$A$2:$G$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'اضافه کار'!$A$2:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'[1]ورود , خروج و مرخصی'!$A$2:$M$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>ردیف</t>
   </si>
@@ -152,60 +152,117 @@
     <t>پروژه ها</t>
   </si>
   <si>
-    <t>98/08/26</t>
-  </si>
-  <si>
-    <t>آموزش سازمان فضایی</t>
-  </si>
-  <si>
-    <t>98/08/22</t>
-  </si>
-  <si>
-    <t>98/08/21</t>
-  </si>
-  <si>
-    <t>98/08/19</t>
-  </si>
-  <si>
-    <t>بانک توسعه تعاون</t>
-  </si>
-  <si>
-    <t>98/08/18</t>
-  </si>
-  <si>
     <t>لک</t>
   </si>
   <si>
-    <t>98/08/13</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>98/08/29</t>
-  </si>
-  <si>
-    <t>98/08/04</t>
-  </si>
-  <si>
-    <t>1 روز کاری</t>
-  </si>
-  <si>
     <t>لک مظاهری</t>
   </si>
   <si>
     <t>آبان</t>
+  </si>
+  <si>
+    <t>98/10/01</t>
+  </si>
+  <si>
+    <t>جلسه بیمه سامان</t>
+  </si>
+  <si>
+    <t>دی</t>
+  </si>
+  <si>
+    <t>فراموشی</t>
+  </si>
+  <si>
+    <t>98/10/03</t>
+  </si>
+  <si>
+    <t>جلسه مدیریت پروژه بانک اقتصاد نوین</t>
+  </si>
+  <si>
+    <t>98/10/10</t>
+  </si>
+  <si>
+    <t>98/10/11</t>
+  </si>
+  <si>
+    <t>98/10/15</t>
+  </si>
+  <si>
+    <t>98/10/18</t>
+  </si>
+  <si>
+    <t>98/10/22</t>
+  </si>
+  <si>
+    <t>98/10/29</t>
+  </si>
+  <si>
+    <t>98/11/02</t>
+  </si>
+  <si>
+    <t>98/10/02</t>
+  </si>
+  <si>
+    <t>سازه اطلاعات سامان</t>
+  </si>
+  <si>
+    <t>اجرایی شدن پورتال بیمه سامان</t>
+  </si>
+  <si>
+    <t>98/10/05</t>
+  </si>
+  <si>
+    <t>98/10/07</t>
+  </si>
+  <si>
+    <t>98/10/08</t>
+  </si>
+  <si>
+    <t>98/10/09</t>
+  </si>
+  <si>
+    <t>98/10/14</t>
+  </si>
+  <si>
+    <t>98/10/17</t>
+  </si>
+  <si>
+    <t>98/10/21</t>
+  </si>
+  <si>
+    <t>98/10/23</t>
+  </si>
+  <si>
+    <t>98/10/24</t>
+  </si>
+  <si>
+    <t>98/10/25</t>
+  </si>
+  <si>
+    <t>بانک اقتصاد نوین</t>
+  </si>
+  <si>
+    <t>98/10/28</t>
+  </si>
+  <si>
+    <t>98/10/30</t>
+  </si>
+  <si>
+    <t>98/11/01</t>
+  </si>
+  <si>
+    <t>برنامه ماهانه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -596,28 +653,46 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,31 +701,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +722,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,14 +737,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,37 +1180,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
@@ -1168,14 +1225,14 @@
       <c r="F3" s="13">
         <v>98</v>
       </c>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1183,11 +1240,11 @@
         <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1198,9 +1255,9 @@
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1211,265 +1268,510 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="30" t="s">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="E12" s="23">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>10</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A19" s="27" t="s">
+      <c r="B18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>12</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="B20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.89722222222222225</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="E21" s="23">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>14</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.90625</v>
+      </c>
+      <c r="E23" s="14">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="52"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A24:D28"/>
-    <mergeCell ref="E24:G28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:G22"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A30:D34"/>
+    <mergeCell ref="E30:G34"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:G28"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1479,116 +1781,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1"/>
+    <col min="12" max="12" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="20">
         <v>98</v>
       </c>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="B4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="27">
         <v>1800</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="46"/>
       <c r="C8" s="14" t="s">
@@ -1597,264 +1899,297 @@
       <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="39"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+      <c r="E8" s="39"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="23">
-        <v>0.5493055555555556</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="D9" s="23">
-        <v>0.72916666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E9" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="23">
-        <v>0.33333333333333331</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="D10" s="23">
-        <v>0.56458333333333333</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C11" s="23">
-        <v>0.59791666666666665</v>
+        <v>0.375</v>
       </c>
       <c r="D11" s="23">
-        <v>0.72916666666666663</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="E11" s="14">
-        <v>3</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C12" s="23">
-        <v>0.60555555555555551</v>
+        <v>0.59861111111111109</v>
       </c>
       <c r="D12" s="23">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E12" s="25">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="23">
-        <v>0.63055555555555554</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="D13" s="23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="24">
+        <v>4</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="23">
-        <v>0.62986111111111109</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="D14" s="23">
-        <v>0.8125</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E14" s="14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A18" s="16">
+      <c r="B17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>10</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A19" s="27" t="s">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:D28"/>
-    <mergeCell ref="E24:F28"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:F22"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1865,6 +2200,13 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:D29"/>
+    <mergeCell ref="E25:F29"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1876,47 +2218,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1931,11 +2273,11 @@
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" thickBot="1">
+    <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -1950,27 +2292,27 @@
       <c r="F4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" thickBot="1">
+    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -1981,17 +2323,17 @@
       <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="49"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:18" ht="16.5" thickBot="1">
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -1999,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D6" s="14">
         <v>1800</v>
@@ -2008,23 +2350,23 @@
         <v>38</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="23">
-        <v>0.33611111111111108</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H6" s="23">
         <v>0.72916666666666663</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1">
+    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -2032,7 +2374,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" s="14">
         <v>1800</v>
@@ -2040,56 +2382,86 @@
       <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" thickBot="1">
+      <c r="H7" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1">
+    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" thickBot="1">
+      <c r="J9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -2106,7 +2478,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:18" ht="16.5" thickBot="1">
+    <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -2123,7 +2495,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1">
+    <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -2140,7 +2512,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:18" ht="16.5" thickBot="1">
+    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -2157,7 +2529,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="16.5" thickBot="1">
+    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -2174,7 +2546,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="16.5" thickBot="1">
+    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>10</v>
       </c>
@@ -2192,169 +2564,164 @@
       <c r="M15" s="14"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="19"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A20" s="50" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="28" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:M19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="A21:H25"/>
-    <mergeCell ref="I21:M25"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="A4:A5"/>
@@ -2368,6 +2735,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A17:M19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="A21:H25"/>
+    <mergeCell ref="I21:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
